--- a/data/ES + technologies + waste treatment.xlsx
+++ b/data/ES + technologies + waste treatment.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="M4D4PwHFW06L//TQoJJeefD9j4NJU9qRXHpLMf4lqXE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="QgODPDoPDi+UrgTG5JanUM4koShOhW9QXw+NBS8Jcxk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="715">
   <si>
     <t>Authors</t>
   </si>
@@ -1920,15 +1920,6 @@
     <t>Urban biomass from green areas is a potential resource for bioenergy recovery, which is widely unused. Different types of organic material (e.g., grass, leaf litter) usually occur in mixtures due to common collecting practice. Forty samples of grass, leaf litter (genera: Acer, Quercus, Tilia), and mixtures of both, containing one third grass or leaf litter, were investigated to evaluate the effect of the Integrated Generation of Solid Fuel and Biogas from Biomass (IFBB) on material and energy fluxes as well as relevant characteristics of resulting energy carriers. IFBB divides biomass into a fiber-rich press cake and a highly digestible press fluid by mashing with subsequent pressing. Ensiling of samples was successful with pH values ranging from 4.2 in grass to 4.8 in pure Tilia samples. Concentration of most minerals with exception of Ca and Mg were higher in grass than in leaf litter silage. The IFBB treatment reduced the element concentration in the press cake independently from the substrate. Linear regression models revealed high influence of the initial concentration in silage on the concentration in the press cake. The lower heating value of the press cake was nearly constant (19 MJ kg(-1) DMash free) independent from mixture. Methane yields from press fluid digestion ranged from 172 (mean of leaf litter samples) to 325 l(N) kg(-1) VS (mixture of 33 % leaf litter-66 % grass). For an evaluation of the economic and ecological potential, models of the spatial and temporal occurrence of these biomasses need to be established.</t>
   </si>
   <si>
-    <t>White, Sarah A.</t>
-  </si>
-  <si>
-    <t>Regulating Water Quality: Current Legislation, Future Impacts: Introduction to the Colloquium</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Gerino, Magali; Orange, Didier; Miguel Sanchez-Perez, Jose; Buffan-Dubau, Evelyne; Canovas, Sophie; Monfort, Bertrand; Albasi, Claire; Sauvage, Sabine</t>
   </si>
   <si>
@@ -2154,12 +2145,6 @@
     <t>Bank filtration (BF) is a nature-based solution that can provide safe drinking water at a low cost, in being a green technology that benefits from natural ecosystem services and saves energy as well. The objective of the present paper is to evaluate the potentiality of a new site for bank filtration along a surface water source that experiences periods of both high and low flow. This site is located along the Ismailia Canal in the eastern Nile Delta fringe of Egypt. The present evaluation is based on exploratory drilling, installation of monitoring infrastructure and monitoring of both water level and water quality parameters for one year. The site has favourable hydrogeological conditions; the mean hydraulic conductivity of aquifer materials (sand and gravel) is 18.98 m/day. Moreover, there is a hydraulic connection between canal and aquifer; under steady conditions, the canal feeds the aquifer. Using different tracers, such as Cl, EC, Sr and SO4, the average bank filtration share is in excess of 95%. BF has reduced the particulates (turbidity) by 96%, total coliform by 99 % and total organic carbon (TOC) expressed as ultra-violet absorbance at 254 wavelengths (UVA254) by 44%. In addition, BF reduces concentrations of disinfection by-products due to its ability to remove organic matter. The potential degradation of TOC in the canal bed sediments may cause the release of iron (Fe) and manganese (Mn) to the bank filtrate water; this process is exaggerated during low-flow periods. Compared to conventional water treatment, BF is a cost-effective green technology, because no chemicals are used and no waste products are generated.</t>
   </si>
   <si>
-    <t>Hussain, Fatima Adil</t>
-  </si>
-  <si>
-    <t>Applications of Mesoporous Hafnium Oxide for Crude Oil Spill Remediation, and Per-And Polyfluoroalkyl Substances Composting, Adsorption, and Electrochemical Oxidation</t>
-  </si>
-  <si>
     <t>Lin, Dong; Zhou, Xiaoliang; Song, Li</t>
   </si>
   <si>
@@ -2176,72 +2161,6 @@
   </si>
   <si>
     <t>Supplying safe, secure, and reliable drinking water is a growing challenge particularly in regions where catchments have diverse land uses, rapidly growing populations, and are subject to increasing weather extremes such as in the subtropics. Catchments represent the first barrier in providing ecosystem services for water quality protection and bulkwater suppliers are therefore investing in mitigation measures to reduce risk to drinking water quality for consumers. This paper presents an approach to combine data on erosion processes, pathogenic bacteria and protozoa from several sources, determine the highest risks from these hazards and identify an optimum portfolio of intervention activities that provide maximum risk reduction at water treatment plants (WTP) for a given budget using a simulated annealing optimizer. The approach is demonstrated in a catchment with six WTPs servicing small rural to urban populations. The catchment is predominantly used for agriculture. Results show that drinking water risk from protozoa can be reduced for most WTPs for moderate investment budget, while bacteria risk reduction requires significantly larger budget due to the greater number of significant source sites relative to protozoa. Total suspended sediment loads remain a very high risk to most of the WTPs due to the large extent of channel and gully erosion and landslides. A map of priority areas and associated suite of interventions are produced to guide on groundwork.</t>
-  </si>
-  <si>
-    <t>Li, Jinze</t>
-  </si>
-  <si>
-    <t>Hybrid Ion Exchange Processes for Sustainable Softening and Marcellus Flowback Treatment</t>
-  </si>
-  <si>
-    <t>Tobin, Tyler</t>
-  </si>
-  <si>
-    <t>Integrated Wastewater Treatment in Lignocellulosic Biorefineries</t>
-  </si>
-  <si>
-    <t>Oyoo, Richard</t>
-  </si>
-  <si>
-    <t>Simulating Sanitation and Waste Flows and Their Environmental Impacts in East African Urban Centres</t>
-  </si>
-  <si>
-    <t>Acheampong, Mike Agbesi</t>
-  </si>
-  <si>
-    <t>Sustainable Gold Mining Wastewater Treatment by Sorption Using Low-Cost Materials</t>
-  </si>
-  <si>
-    <t>Reid, Joseph Pignatello</t>
-  </si>
-  <si>
-    <t>Non-equilbrium dynamics of ecosystem processes in a changing world</t>
-  </si>
-  <si>
-    <t>Russell, Rachel</t>
-  </si>
-  <si>
-    <t>Environmental equity and urban sustainability: An analysis of untreated household wastewater in Tijuana, Mexico</t>
-  </si>
-  <si>
-    <t>Wang, Hui Jun</t>
-  </si>
-  <si>
-    <t>Cold water river artificial wetland ecosystem technology itemized appraisal research</t>
-  </si>
-  <si>
-    <t>Wang, Xuan</t>
-  </si>
-  <si>
-    <t>Coastal ecosystem service valuation: theoretical implication, integrated multidisciplinary approaches and case studies</t>
-  </si>
-  <si>
-    <t>Li, XueMei</t>
-  </si>
-  <si>
-    <t>Wetland landscape pattern, ecosystem service value analysis and forecast in tbna</t>
-  </si>
-  <si>
-    <t>Godin, Julie</t>
-  </si>
-  <si>
-    <t>Environmental Assessment of the Rehabilitation of a Site Contaminated by Residues From the Primary Aluminum Industry</t>
-  </si>
-  <si>
-    <t>Kanshie, Tadesse Kippie</t>
-  </si>
-  <si>
-    <t>Five Thousand Years of Sustainability? : a Case Study on Gedeo Land Use (Southern Ethiopia)</t>
   </si>
 </sst>
 </file>
@@ -5472,7 +5391,7 @@
         <v>635</v>
       </c>
       <c r="C212" s="2">
-        <v>2013.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>636</v>
@@ -5486,7 +5405,7 @@
         <v>638</v>
       </c>
       <c r="C213" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>639</v>
@@ -5542,7 +5461,7 @@
         <v>650</v>
       </c>
       <c r="C217" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>651</v>
@@ -5556,7 +5475,7 @@
         <v>653</v>
       </c>
       <c r="C218" s="2">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>654</v>
@@ -5570,7 +5489,7 @@
         <v>656</v>
       </c>
       <c r="C219" s="2">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>657</v>
@@ -5584,7 +5503,7 @@
         <v>659</v>
       </c>
       <c r="C220" s="2">
-        <v>2014.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>660</v>
@@ -5612,7 +5531,7 @@
         <v>665</v>
       </c>
       <c r="C222" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>666</v>
@@ -5640,7 +5559,7 @@
         <v>671</v>
       </c>
       <c r="C224" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>672</v>
@@ -5654,7 +5573,7 @@
         <v>674</v>
       </c>
       <c r="C225" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>675</v>
@@ -5668,7 +5587,7 @@
         <v>677</v>
       </c>
       <c r="C226" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>678</v>
@@ -5696,7 +5615,7 @@
         <v>683</v>
       </c>
       <c r="C228" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>684</v>
@@ -5710,7 +5629,7 @@
         <v>686</v>
       </c>
       <c r="C229" s="2">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>687</v>
@@ -5794,7 +5713,7 @@
         <v>704</v>
       </c>
       <c r="C235" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>705</v>
@@ -5836,193 +5755,76 @@
         <v>713</v>
       </c>
       <c r="C238" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="A239" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C239" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>716</v>
-      </c>
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="D239" s="1"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="A240" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C240" s="2">
-        <v>2021.0</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>719</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="D240" s="1"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="A241" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C241" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="D241" s="1"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="A242" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C242" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="D242" s="1"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="A243" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C243" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="D243" s="1"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="A244" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C244" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="D244" s="1"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="A245" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C245" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="D245" s="1"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="A246" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C246" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="D246" s="1"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="A247" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C247" s="2">
-        <v>2011.0</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="D247" s="1"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="A248" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C248" s="2">
-        <v>2011.0</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="D248" s="1"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="A249" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C249" s="2">
-        <v>2010.0</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="D249" s="1"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="A250" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C250" s="2">
-        <v>2004.0</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="D250" s="1"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="A251" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C251" s="2">
-        <v>2002.0</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="D251" s="1"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="1"/>
@@ -9698,71 +9500,6 @@
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="D986" s="1"/>
-    </row>
-    <row r="987" ht="12.75" customHeight="1">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="D987" s="1"/>
-    </row>
-    <row r="988" ht="12.75" customHeight="1">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="D988" s="1"/>
-    </row>
-    <row r="989" ht="12.75" customHeight="1">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="D989" s="1"/>
-    </row>
-    <row r="990" ht="12.75" customHeight="1">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="D990" s="1"/>
-    </row>
-    <row r="991" ht="12.75" customHeight="1">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="D991" s="1"/>
-    </row>
-    <row r="992" ht="12.75" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="D992" s="1"/>
-    </row>
-    <row r="993" ht="12.75" customHeight="1">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="D993" s="1"/>
-    </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="D994" s="1"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="D995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="D996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
